--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_3_3.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_3_3.xlsx
@@ -478,342 +478,342 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_9</t>
+          <t>model_3_3_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7767481457686942</v>
+        <v>0.4617052126849445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8154491264526045</v>
+        <v>0.1148055315503338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8060132606948102</v>
+        <v>0.4330422374328121</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8179338206573217</v>
+        <v>0.3904367761852172</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2470740228891373</v>
+        <v>0.5957337021827698</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1556830108165741</v>
+        <v>0.1730260252952576</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3363169431686401</v>
+        <v>0.6501836180686951</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2406872063875198</v>
+        <v>0.3975711166858673</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_8</t>
+          <t>model_3_3_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.778197114533043</v>
+        <v>0.4639333408989004</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8192778153024658</v>
+        <v>0.1189240143350556</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8105309711984419</v>
+        <v>0.4295566718261252</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8220153753378474</v>
+        <v>0.3882066065083235</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2454704195261002</v>
+        <v>0.5932678580284119</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1524532288312912</v>
+        <v>0.1722210049629211</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3284845352172852</v>
+        <v>0.6541808843612671</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2352914959192276</v>
+        <v>0.3990256786346436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_11</t>
+          <t>model_3_3_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7790586255537479</v>
+        <v>0.465342157210617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8153051037625078</v>
+        <v>0.2171985783389684</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8152400611352119</v>
+        <v>0.4126476500159032</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8235795100555107</v>
+        <v>0.3898081983557685</v>
       </c>
       <c r="F4" t="n">
-        <v>0.244516983628273</v>
+        <v>0.5917087197303772</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1558045148849487</v>
+        <v>0.1530116200447083</v>
       </c>
       <c r="H4" t="n">
-        <v>0.320320338010788</v>
+        <v>0.6735720038414001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2332237660884857</v>
+        <v>0.3979810774326324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_13</t>
+          <t>model_3_3_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7790709961563254</v>
+        <v>0.4659477644836172</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8150315489958161</v>
+        <v>0.2153753517247847</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8153534665271223</v>
+        <v>0.412427487907096</v>
       </c>
       <c r="E5" t="n">
-        <v>0.823556584880262</v>
+        <v>0.3893364290894554</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2445032894611359</v>
+        <v>0.5910384058952332</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1560352593660355</v>
+        <v>0.1533679962158203</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3201237320899963</v>
+        <v>0.6738245487213135</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2332540452480316</v>
+        <v>0.3982887864112854</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_12</t>
+          <t>model_3_3_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7790780118221216</v>
+        <v>0.4668214178340007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8152477899365116</v>
+        <v>0.1930688155397685</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8153252625229594</v>
+        <v>0.4153525141898092</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8236127560023921</v>
+        <v>0.3882175485379242</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2444955259561539</v>
+        <v>0.5900716185569763</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1558528542518616</v>
+        <v>0.1577281951904297</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3201726377010345</v>
+        <v>0.670470118522644</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2331797927618027</v>
+        <v>0.3990185260772705</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_10</t>
+          <t>model_3_3_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7790994098764457</v>
+        <v>0.4670210191530472</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8161344250126237</v>
+        <v>0.1978607537258751</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8151263494726326</v>
+        <v>0.413755435200704</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8237894775175207</v>
+        <v>0.3876564499568248</v>
       </c>
       <c r="F7" t="n">
-        <v>0.244471862912178</v>
+        <v>0.5898507237434387</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1551049202680588</v>
+        <v>0.1567915081977844</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3205174803733826</v>
+        <v>0.6723016500473022</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2329461723566055</v>
+        <v>0.3993844985961914</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_16</t>
+          <t>model_3_3_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7791942862943311</v>
+        <v>0.4670378841984539</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8151591562959577</v>
+        <v>0.1974575611276226</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8156169464856443</v>
+        <v>0.4139787708747302</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8237628113638746</v>
+        <v>0.3877773818301479</v>
       </c>
       <c r="F8" t="n">
-        <v>0.244366854429245</v>
+        <v>0.5898320078849792</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1559276282787323</v>
+        <v>0.1568703204393387</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3196669220924377</v>
+        <v>0.6720455288887024</v>
       </c>
       <c r="I8" t="n">
-        <v>0.232981413602829</v>
+        <v>0.3993056118488312</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_14</t>
+          <t>model_3_3_24</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7793933964549252</v>
+        <v>0.4671679919239531</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8152976364231878</v>
+        <v>0.1997256262662129</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8165498738523885</v>
+        <v>0.3994087759232083</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8243853629413889</v>
+        <v>0.3760812523336214</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2441464960575104</v>
+        <v>0.5896880030632019</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1558108180761337</v>
+        <v>0.1564269959926605</v>
       </c>
       <c r="H9" t="n">
-        <v>0.3180494904518127</v>
+        <v>0.6887543201446533</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2321584224700928</v>
+        <v>0.4069340825080872</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_15</t>
+          <t>model_3_3_23</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7795536581369359</v>
+        <v>0.4674727743280016</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8156685556268145</v>
+        <v>0.2042905413285254</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8170264403801932</v>
+        <v>0.400797010590475</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8248047895455533</v>
+        <v>0.3779545329899361</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2439691573381424</v>
+        <v>0.5893507599830627</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1554979085922241</v>
+        <v>0.1555347144603729</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3172232806682587</v>
+        <v>0.6871622800827026</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2316039502620697</v>
+        <v>0.4057123064994812</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_22</t>
+          <t>model_3_3_7</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7800888666255869</v>
+        <v>0.4674878489087108</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8160008078992027</v>
+        <v>0.2059525678924918</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8190341459154035</v>
+        <v>0.4131206555702188</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8261560485446426</v>
+        <v>0.3884148902484051</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2433768212795258</v>
+        <v>0.5893340706825256</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1552176475524902</v>
+        <v>0.1552098393440247</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3137425184249878</v>
+        <v>0.6730296015739441</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2298176288604736</v>
+        <v>0.3988898396492004</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_21</t>
+          <t>model_3_3_22</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7800888666255869</v>
+        <v>0.4674994267816381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8160008078992027</v>
+        <v>0.2040627518198843</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8190341459154035</v>
+        <v>0.4012723179401879</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8261560485446426</v>
+        <v>0.3783114397486236</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2433768212795258</v>
+        <v>0.5893212556838989</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1552176475524902</v>
+        <v>0.1555792391300201</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3137425184249878</v>
+        <v>0.6866171956062317</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2298176288604736</v>
+        <v>0.4054795205593109</v>
       </c>
     </row>
     <row r="13">
@@ -823,431 +823,431 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7800888666255869</v>
+        <v>0.4675603176511379</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8160008078992027</v>
+        <v>0.2049604510229598</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8190341459154035</v>
+        <v>0.4018300602817648</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8261560485446426</v>
+        <v>0.3789155887550122</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2433768212795258</v>
+        <v>0.589253842830658</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1552176475524902</v>
+        <v>0.1554037630558014</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3137425184249878</v>
+        <v>0.685977578163147</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2298176288604736</v>
+        <v>0.4050854742527008</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_19</t>
+          <t>model_3_3_21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7800888666255869</v>
+        <v>0.467561042234916</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8160008078992027</v>
+        <v>0.2046364946156791</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8190341459154035</v>
+        <v>0.4017246972942234</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8261560485446426</v>
+        <v>0.3787770040838243</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2433768212795258</v>
+        <v>0.5892530083656311</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1552176475524902</v>
+        <v>0.1554670929908752</v>
       </c>
       <c r="H14" t="n">
-        <v>0.3137425184249878</v>
+        <v>0.6860984563827515</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2298176288604736</v>
+        <v>0.4051758944988251</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_18</t>
+          <t>model_3_3_19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7800888666255869</v>
+        <v>0.4675936872105221</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8160008078992027</v>
+        <v>0.2043285453120208</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8190341459154035</v>
+        <v>0.4023952594382775</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8261560485446426</v>
+        <v>0.379282871201116</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2433768212795258</v>
+        <v>0.5892168879508972</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1552176475524902</v>
+        <v>0.1555272787809372</v>
       </c>
       <c r="H15" t="n">
-        <v>0.3137425184249878</v>
+        <v>0.6853293776512146</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2298176288604736</v>
+        <v>0.4048459231853485</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_17</t>
+          <t>model_3_3_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7800888666255869</v>
+        <v>0.4676426793694844</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8160008078992027</v>
+        <v>0.2041694980051495</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8190341459154035</v>
+        <v>0.4028760630691227</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8261560485446426</v>
+        <v>0.3796556303700939</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2433768212795258</v>
+        <v>0.5891627073287964</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1552176475524902</v>
+        <v>0.1555583775043488</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3137425184249878</v>
+        <v>0.6847780346870422</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2298176288604736</v>
+        <v>0.4046027958393097</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_24</t>
+          <t>model_3_3_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.7800888666255869</v>
+        <v>0.4676433913800416</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8160008078992027</v>
+        <v>0.2034508666022097</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8190341459154035</v>
+        <v>0.4034504514642131</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8261560485446426</v>
+        <v>0.3800167793508118</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2433768212795258</v>
+        <v>0.5891618728637695</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1552176475524902</v>
+        <v>0.155698835849762</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3137425184249878</v>
+        <v>0.6841192841529846</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2298176288604736</v>
+        <v>0.4043672978878021</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_23</t>
+          <t>model_3_3_10</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7800888666255869</v>
+        <v>0.4677611257640671</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8160008078992027</v>
+        <v>0.2057716385692395</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8190341459154035</v>
+        <v>0.4104384728655617</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8261560485446426</v>
+        <v>0.3861671391884244</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2433768212795258</v>
+        <v>0.5890316367149353</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1552176475524902</v>
+        <v>0.1552451997995377</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3137425184249878</v>
+        <v>0.6761054992675781</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2298176288604736</v>
+        <v>0.4003558158874512</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_7</t>
+          <t>model_3_3_9</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7818776459550251</v>
+        <v>0.4678234568387689</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8262722991866247</v>
+        <v>0.2062973316650339</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8248750795409416</v>
+        <v>0.4108781446195038</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8332303150669929</v>
+        <v>0.3866141352949558</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2413971722126007</v>
+        <v>0.5889626145362854</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1465528458356857</v>
+        <v>0.1551424413919449</v>
       </c>
       <c r="H19" t="n">
-        <v>0.3036159873008728</v>
+        <v>0.6756012439727783</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2204656004905701</v>
+        <v>0.4000642895698547</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_6</t>
+          <t>model_3_3_13</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7824207554013431</v>
+        <v>0.4678987163869254</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8287099274291283</v>
+        <v>0.2040574397101128</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8264130173540832</v>
+        <v>0.4068059974249797</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8350034283425845</v>
+        <v>0.3828892977114954</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2407961040735245</v>
+        <v>0.5888792872428894</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1444965004920959</v>
+        <v>0.1555802673101425</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3009496331214905</v>
+        <v>0.6802712082862854</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2181216031312943</v>
+        <v>0.4024937152862549</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_5</t>
+          <t>model_3_3_14</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.78272407733363</v>
+        <v>0.4679253698600536</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8296608461852732</v>
+        <v>0.206247519530911</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8275606371253349</v>
+        <v>0.4060260887177162</v>
       </c>
       <c r="E21" t="n">
-        <v>0.836032947205964</v>
+        <v>0.3825913408873871</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2404604107141495</v>
+        <v>0.5888498425483704</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1436943411827087</v>
+        <v>0.1551521718502045</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2989600300788879</v>
+        <v>0.6811656355857849</v>
       </c>
       <c r="I21" t="n">
-        <v>0.216760590672493</v>
+        <v>0.402688056230545</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_4</t>
+          <t>model_3_3_12</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7907253829091443</v>
+        <v>0.4679472646819817</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8542928222956252</v>
+        <v>0.2077427427229313</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8554669206876573</v>
+        <v>0.4093986170036547</v>
       </c>
       <c r="E22" t="n">
-        <v>0.861576867255884</v>
+        <v>0.3856193559313833</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2316053211688995</v>
+        <v>0.5888256430625916</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1229153349995613</v>
+        <v>0.1548599153757095</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2505785822868347</v>
+        <v>0.6772980093955994</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1829921156167984</v>
+        <v>0.4007131457328796</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_3</t>
+          <t>model_3_3_11</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7923484960752839</v>
+        <v>0.467967746654155</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8579480524067677</v>
+        <v>0.2083109317704459</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8612569864240016</v>
+        <v>0.4096179560232345</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8663850983361108</v>
+        <v>0.3858915023002454</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2298090308904648</v>
+        <v>0.5888028740882874</v>
       </c>
       <c r="G23" t="n">
-        <v>0.119831882417202</v>
+        <v>0.1547488570213318</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2405402809381485</v>
+        <v>0.6770464181900024</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1766357421875</v>
+        <v>0.4005356431007385</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_2</t>
+          <t>model_3_3_16</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7978158452178514</v>
+        <v>0.4680436611572176</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8710246020425784</v>
+        <v>0.2096715441811153</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8818146055325591</v>
+        <v>0.4052771703827032</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8834903116436273</v>
+        <v>0.382515427900557</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2237582951784134</v>
+        <v>0.5887189507484436</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1088007763028145</v>
+        <v>0.154482901096344</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2048993110656738</v>
+        <v>0.6820244193077087</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1540230512619019</v>
+        <v>0.4027375876903534</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_0</t>
+          <t>model_3_3_15</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8030280065383559</v>
+        <v>0.4680579473179289</v>
       </c>
       <c r="C25" t="n">
-        <v>0.902876406450883</v>
+        <v>0.2094509367923234</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9287722056574735</v>
+        <v>0.4058455759932309</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9232303566069631</v>
+        <v>0.3829506528614203</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2179899513721466</v>
+        <v>0.5887030959129333</v>
       </c>
       <c r="G25" t="n">
-        <v>0.08193130791187286</v>
+        <v>0.154526025056839</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1234884113073349</v>
+        <v>0.6813726425170898</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1014876663684845</v>
+        <v>0.4024536907672882</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_3_3_1</t>
+          <t>model_3_3_8</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8037594462730415</v>
+        <v>0.4681011260690893</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8949192279617086</v>
+        <v>0.2106822626373275</v>
       </c>
       <c r="D26" t="n">
-        <v>0.909908446978089</v>
+        <v>0.4129442105148928</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9088999679797474</v>
+        <v>0.3890192609098078</v>
       </c>
       <c r="F26" t="n">
-        <v>0.217180460691452</v>
+        <v>0.5886553525924683</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08864381164312363</v>
+        <v>0.154285341501236</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1561927199363708</v>
+        <v>0.6732319593429565</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1204320937395096</v>
+        <v>0.3984956443309784</v>
       </c>
     </row>
   </sheetData>
